--- a/knowledge-base/excel-postings/initiatives/FY 22/s1.w6/w6-workstream.initiatives.a6i.xlsx
+++ b/knowledge-base/excel-postings/initiatives/FY 22/s1.w6/w6-workstream.initiatives.a6i.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test-knowledge-base\excel-postings\initiatives\FY 22\s1.w6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\knowledge-base\excel-postings\initiatives\FY 22\s1.w6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497DC5D1-8B2E-4F38-8306-3277DEAB2C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC8464-F9C5-4909-BC63-F5B33FC16D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>workstream.initiatives.a6i.io/v1a</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -799,39 +799,39 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>0</v>
@@ -842,100 +842,100 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="10">
         <v>44315</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +980,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -991,53 +991,53 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="15">
         <v>44439</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="15">
         <v>44408</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -1046,16 +1046,16 @@
       <c r="D4" s="12"/>
       <c r="E4" s="15"/>
       <c r="F4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="15">
         <v>44408</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -1064,7 +1064,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="15"/>
       <c r="F5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="15">
         <v>44439</v>
@@ -1105,23 +1105,23 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="15">
         <v>44530</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -1130,14 +1130,14 @@
       <c r="D10" s="12"/>
       <c r="E10" s="15"/>
       <c r="F10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -1148,10 +1148,10 @@
       <c r="F11" s="12"/>
       <c r="G11" s="15"/>
       <c r="H11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
@@ -1170,7 +1170,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
       <c r="F13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="12"/>
@@ -1287,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1301,37 +1301,37 @@
     </row>
     <row r="2" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="M2" s="17"/>
     </row>
@@ -1351,19 +1351,19 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H4" s="19">
         <v>1</v>
@@ -1380,19 +1380,19 @@
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="19">
         <v>1</v>
@@ -1422,19 +1422,19 @@
     <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H7" s="19">
         <v>1</v>
@@ -1464,19 +1464,19 @@
     <row r="9" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="19">
         <v>1</v>
@@ -1600,6 +1600,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
@@ -1611,15 +1620,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1834,19 +1834,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
